--- a/report_zone/Report_zone3.xlsx
+++ b/report_zone/Report_zone3.xlsx
@@ -2409,7 +2409,7 @@
       </c>
       <c r="HF2" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="HF3" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="HF4" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="HF5" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -6049,7 +6049,7 @@
       </c>
       <c r="HF6" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -6957,7 +6957,7 @@
       </c>
       <c r="HF7" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="HF8" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -8773,7 +8773,7 @@
       </c>
       <c r="HF9" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -9609,7 +9609,7 @@
       <c r="HE10" t="inlineStr"/>
       <c r="HF10" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -10517,7 +10517,7 @@
       </c>
       <c r="HF11" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -11349,7 +11349,7 @@
       </c>
       <c r="HF12" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -12221,7 +12221,7 @@
       </c>
       <c r="HF13" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -13045,7 +13045,7 @@
       <c r="HE14" t="inlineStr"/>
       <c r="HF14" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -13953,7 +13953,7 @@
       </c>
       <c r="HF15" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -14845,7 +14845,7 @@
       </c>
       <c r="HF16" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -15709,7 +15709,7 @@
       <c r="HE17" t="inlineStr"/>
       <c r="HF17" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -16617,7 +16617,7 @@
       </c>
       <c r="HF18" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -17481,7 +17481,7 @@
       <c r="HE19" t="inlineStr"/>
       <c r="HF19" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -18341,7 +18341,7 @@
       </c>
       <c r="HF20" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -19233,7 +19233,7 @@
       </c>
       <c r="HF21" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -20141,7 +20141,7 @@
       </c>
       <c r="HF22" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -21017,7 +21017,7 @@
       </c>
       <c r="HF23" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -21925,7 +21925,7 @@
       </c>
       <c r="HF24" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -22837,7 +22837,7 @@
       </c>
       <c r="HF25" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -23753,7 +23753,7 @@
       </c>
       <c r="HF26" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -24661,7 +24661,7 @@
       </c>
       <c r="HF27" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -25569,7 +25569,7 @@
       </c>
       <c r="HF28" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -26477,7 +26477,7 @@
       </c>
       <c r="HF29" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -27385,7 +27385,7 @@
       </c>
       <c r="HF30" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -28293,7 +28293,7 @@
       </c>
       <c r="HF31" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -29201,7 +29201,7 @@
       </c>
       <c r="HF32" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -30109,7 +30109,7 @@
       </c>
       <c r="HF33" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -31017,7 +31017,7 @@
       </c>
       <c r="HF34" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -31929,7 +31929,7 @@
       </c>
       <c r="HF35" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -32837,7 +32837,7 @@
       </c>
       <c r="HF36" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -33745,7 +33745,7 @@
       </c>
       <c r="HF37" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -34653,7 +34653,7 @@
       </c>
       <c r="HF38" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -35569,7 +35569,7 @@
       </c>
       <c r="HF39" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -36485,7 +36485,7 @@
       </c>
       <c r="HF40" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -37393,7 +37393,7 @@
       </c>
       <c r="HF41" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -38301,7 +38301,7 @@
       </c>
       <c r="HF42" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -39213,7 +39213,7 @@
       </c>
       <c r="HF43" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -40121,7 +40121,7 @@
       </c>
       <c r="HF44" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -41037,7 +41037,7 @@
       </c>
       <c r="HF45" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -41945,7 +41945,7 @@
       </c>
       <c r="HF46" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -42853,7 +42853,7 @@
       </c>
       <c r="HF47" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -43761,7 +43761,7 @@
       </c>
       <c r="HF48" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -44669,7 +44669,7 @@
       </c>
       <c r="HF49" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -45577,7 +45577,7 @@
       </c>
       <c r="HF50" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -46485,7 +46485,7 @@
       </c>
       <c r="HF51" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -47393,7 +47393,7 @@
       </c>
       <c r="HF52" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -48301,7 +48301,7 @@
       </c>
       <c r="HF53" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -49209,7 +49209,7 @@
       </c>
       <c r="HF54" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
@@ -50117,7 +50117,7 @@
       </c>
       <c r="HF55" t="inlineStr">
         <is>
-          <t>2025-05-19 05:38:05</t>
+          <t>2025-05-19 19:38:08</t>
         </is>
       </c>
     </row>
